--- a/students2.xlsx
+++ b/students2.xlsx
@@ -109,82 +109,4 @@
 
 <file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>